--- a/data/trans_dic/P27F_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27F_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +638,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,96%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,04</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -611,12 +748,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>1,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,25</t>
+          <t>0,56; 6,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,92</t>
+          <t>1,08; 6,9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 7,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 5,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 4,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 4,59</t>
         </is>
       </c>
     </row>
@@ -661,12 +858,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,61%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -679,17 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,34</t>
+          <t>0,36; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,72</t>
+          <t>0,49; 4,25</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,04</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,44</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 2,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 2,89</t>
         </is>
       </c>
     </row>
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,95%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 10,16</t>
+          <t>1,0; 10,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,02</t>
+          <t>0,47; 4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,51</t>
+          <t>0,39; 3,9</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 5,67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 6,76</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,78</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 7,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 4,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 3,0</t>
         </is>
       </c>
     </row>
@@ -761,12 +1078,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,56</t>
+          <t>0,51; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,28</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,3</t>
+          <t>0,85; 5,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 6,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 7,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 4,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 4,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 4,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,87</t>
         </is>
       </c>
     </row>
@@ -811,12 +1188,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,0</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,13</t>
+          <t>0,0; 3,82</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 5,29</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,19</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 17,74</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,01</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 9,97</t>
         </is>
       </c>
     </row>
@@ -861,12 +1298,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,99%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>1,87%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1346,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,49</t>
+          <t>0,97; 3,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,93</t>
+          <t>0,41; 1,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,75</t>
+          <t>0,88; 2,39</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 2,95</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 3,09</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 2,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 2,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 3,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,84%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2459</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1797</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2518</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3605</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16830</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10506</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27336</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>279; 2998</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2295</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6207; 39732</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1759</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>606; 3547</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2967; 25402</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>529; 3762</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>864; 3998</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12879; 49521</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10491</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7952</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18443</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>219; 2053</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3335; 28871</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>222; 2176</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>222; 1887</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1973; 21462</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>655; 3075</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>221; 1878</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7236; 40364</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9749</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1833</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22444</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>583; 6244</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>268; 2441</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2521; 25480</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>654; 2962</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>864; 3602</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5530; 24999</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2031; 7810</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1449; 4802</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11702; 39426</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10654</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2265</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20761</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>227; 2056</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1548</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4147; 24569</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>681; 3259</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>861; 3537</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2493; 22249</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1224; 4178</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1107; 3897</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11331; 39019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>32411</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37064</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2178</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21650</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>341; 3337</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1389</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3847; 129157</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>344; 3313</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2168</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7957; 129055</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52376</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6497</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>73672</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9250</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>126048</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2922; 9437</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1239; 5530</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>30175; 82278</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4029; 8923</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4439; 9348</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40630; 170517</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8006; 16074</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6735; 13053</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>86155; 222118</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>